--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ntf5</t>
+  </si>
+  <si>
+    <t>Ngfr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntf5</t>
-  </si>
-  <si>
-    <t>Ngfr</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +534,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,40 +549,40 @@
         <v>0.339264</v>
       </c>
       <c r="I2">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J2">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.573052</v>
+        <v>0.3922183333333333</v>
       </c>
       <c r="N2">
-        <v>19.719156</v>
+        <v>1.176655</v>
       </c>
       <c r="O2">
-        <v>0.9563653689351861</v>
+        <v>0.06257714082953221</v>
       </c>
       <c r="P2">
-        <v>0.956365368935186</v>
+        <v>0.06257714082953222</v>
       </c>
       <c r="Q2">
-        <v>0.743333304576</v>
+        <v>0.04435518688</v>
       </c>
       <c r="R2">
-        <v>6.689999741184</v>
+        <v>0.39919668192</v>
       </c>
       <c r="S2">
-        <v>0.1166596460471194</v>
+        <v>0.02045857591572871</v>
       </c>
       <c r="T2">
-        <v>0.1166596460471193</v>
+        <v>0.02045857591572871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,40 +611,40 @@
         <v>0.339264</v>
       </c>
       <c r="I3">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J3">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.034619</v>
+        <v>5.787580333333334</v>
       </c>
       <c r="N3">
-        <v>0.103857</v>
+        <v>17.362741</v>
       </c>
       <c r="O3">
-        <v>0.005036992360195417</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="P3">
-        <v>0.005036992360195417</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="Q3">
-        <v>0.003914993472</v>
+        <v>0.654505884736</v>
       </c>
       <c r="R3">
-        <v>0.035234941248</v>
+        <v>5.890552962624001</v>
       </c>
       <c r="S3">
-        <v>0.000614423906353582</v>
+        <v>0.3018870908241035</v>
       </c>
       <c r="T3">
-        <v>0.0006144239063535819</v>
+        <v>0.3018870908241035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,45 +673,45 @@
         <v>0.339264</v>
       </c>
       <c r="I4">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J4">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2652796666666666</v>
+        <v>0.034619</v>
       </c>
       <c r="N4">
-        <v>0.795839</v>
+        <v>0.103857</v>
       </c>
       <c r="O4">
-        <v>0.03859763870461847</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="P4">
-        <v>0.03859763870461847</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="Q4">
-        <v>0.029999946944</v>
+        <v>0.003914993472000001</v>
       </c>
       <c r="R4">
-        <v>0.269999522496</v>
+        <v>0.035234941248</v>
       </c>
       <c r="S4">
-        <v>0.004708228691455832</v>
+        <v>0.001805768316864193</v>
       </c>
       <c r="T4">
-        <v>0.004708228691455832</v>
+        <v>0.001805768316864193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +720,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.343595</v>
+        <v>0.113088</v>
       </c>
       <c r="H5">
-        <v>1.030785</v>
+        <v>0.339264</v>
       </c>
       <c r="I5">
-        <v>0.3706185263061005</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J5">
-        <v>0.3706185263061006</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.573052</v>
+        <v>0.05333966666666667</v>
       </c>
       <c r="N5">
-        <v>19.719156</v>
+        <v>0.160019</v>
       </c>
       <c r="O5">
-        <v>0.9563653689351861</v>
+        <v>0.008510167804837369</v>
       </c>
       <c r="P5">
-        <v>0.956365368935186</v>
+        <v>0.008510167804837371</v>
       </c>
       <c r="Q5">
-        <v>2.25846780194</v>
+        <v>0.006032076224000001</v>
       </c>
       <c r="R5">
-        <v>20.32621021746</v>
+        <v>0.054288686016</v>
       </c>
       <c r="S5">
-        <v>0.3544467236449488</v>
+        <v>0.00278226061118934</v>
       </c>
       <c r="T5">
-        <v>0.3544467236449488</v>
+        <v>0.00278226061118934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +782,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.343595</v>
+        <v>0.084206</v>
       </c>
       <c r="H6">
-        <v>1.030785</v>
+        <v>0.252618</v>
       </c>
       <c r="I6">
-        <v>0.3706185263061005</v>
+        <v>0.2434367817753429</v>
       </c>
       <c r="J6">
-        <v>0.3706185263061006</v>
+        <v>0.243436781775343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.034619</v>
+        <v>0.3922183333333333</v>
       </c>
       <c r="N6">
-        <v>0.103857</v>
+        <v>1.176655</v>
       </c>
       <c r="O6">
-        <v>0.005036992360195417</v>
+        <v>0.06257714082953221</v>
       </c>
       <c r="P6">
-        <v>0.005036992360195417</v>
+        <v>0.06257714082953222</v>
       </c>
       <c r="Q6">
-        <v>0.011894915305</v>
+        <v>0.03302713697666667</v>
       </c>
       <c r="R6">
-        <v>0.107054237745</v>
+        <v>0.29724423279</v>
       </c>
       <c r="S6">
-        <v>0.001866802685550713</v>
+        <v>0.01523357777624374</v>
       </c>
       <c r="T6">
-        <v>0.001866802685550713</v>
+        <v>0.01523357777624374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +844,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.084206</v>
+      </c>
+      <c r="H7">
+        <v>0.252618</v>
+      </c>
+      <c r="I7">
+        <v>0.2434367817753429</v>
+      </c>
+      <c r="J7">
+        <v>0.243436781775343</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.343595</v>
-      </c>
-      <c r="H7">
-        <v>1.030785</v>
-      </c>
-      <c r="I7">
-        <v>0.3706185263061005</v>
-      </c>
-      <c r="J7">
-        <v>0.3706185263061006</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2652796666666666</v>
+        <v>5.787580333333334</v>
       </c>
       <c r="N7">
-        <v>0.795839</v>
+        <v>17.362741</v>
       </c>
       <c r="O7">
-        <v>0.03859763870461847</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="P7">
-        <v>0.03859763870461847</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="Q7">
-        <v>0.09114876706833333</v>
+        <v>0.4873489895486667</v>
       </c>
       <c r="R7">
-        <v>0.8203389036150001</v>
+        <v>4.386140905938</v>
       </c>
       <c r="S7">
-        <v>0.01430499997560101</v>
+        <v>0.2247869302661154</v>
       </c>
       <c r="T7">
-        <v>0.01430499997560101</v>
+        <v>0.2247869302661154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,51 +915,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.244596</v>
+        <v>0.084206</v>
       </c>
       <c r="H8">
-        <v>0.733788</v>
+        <v>0.252618</v>
       </c>
       <c r="I8">
-        <v>0.2638333184719421</v>
+        <v>0.2434367817753429</v>
       </c>
       <c r="J8">
-        <v>0.2638333184719422</v>
+        <v>0.243436781775343</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.573052</v>
+        <v>0.034619</v>
       </c>
       <c r="N8">
-        <v>19.719156</v>
+        <v>0.103857</v>
       </c>
       <c r="O8">
-        <v>0.9563653689351861</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="P8">
-        <v>0.956365368935186</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="Q8">
-        <v>1.607742226992</v>
+        <v>0.002915127514000001</v>
       </c>
       <c r="R8">
-        <v>14.469680042928</v>
+        <v>0.026236147626</v>
       </c>
       <c r="S8">
-        <v>0.2523210489578134</v>
+        <v>0.001344585870206089</v>
       </c>
       <c r="T8">
-        <v>0.2523210489578134</v>
+        <v>0.001344585870206089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.244596</v>
+        <v>0.084206</v>
       </c>
       <c r="H9">
-        <v>0.733788</v>
+        <v>0.252618</v>
       </c>
       <c r="I9">
-        <v>0.2638333184719421</v>
+        <v>0.2434367817753429</v>
       </c>
       <c r="J9">
-        <v>0.2638333184719422</v>
+        <v>0.243436781775343</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.034619</v>
+        <v>0.05333966666666667</v>
       </c>
       <c r="N9">
-        <v>0.103857</v>
+        <v>0.160019</v>
       </c>
       <c r="O9">
-        <v>0.005036992360195417</v>
+        <v>0.008510167804837369</v>
       </c>
       <c r="P9">
-        <v>0.005036992360195417</v>
+        <v>0.008510167804837371</v>
       </c>
       <c r="Q9">
-        <v>0.008467668923999999</v>
+        <v>0.004491519971333333</v>
       </c>
       <c r="R9">
-        <v>0.07620902031599999</v>
+        <v>0.040423679742</v>
       </c>
       <c r="S9">
-        <v>0.001328926409508177</v>
+        <v>0.002071687862777744</v>
       </c>
       <c r="T9">
-        <v>0.001328926409508177</v>
+        <v>0.002071687862777745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.244596</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H10">
-        <v>0.733788</v>
+        <v>0.265777</v>
       </c>
       <c r="I10">
-        <v>0.2638333184719421</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J10">
-        <v>0.2638333184719422</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,33 +1057,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2652796666666666</v>
+        <v>0.3922183333333333</v>
       </c>
       <c r="N10">
-        <v>0.795839</v>
+        <v>1.176655</v>
       </c>
       <c r="O10">
-        <v>0.03859763870461847</v>
+        <v>0.06257714082953221</v>
       </c>
       <c r="P10">
-        <v>0.03859763870461847</v>
+        <v>0.06257714082953222</v>
       </c>
       <c r="Q10">
-        <v>0.06488634534799999</v>
+        <v>0.03474753732611111</v>
       </c>
       <c r="R10">
-        <v>0.583977108132</v>
+        <v>0.312727835935</v>
       </c>
       <c r="S10">
-        <v>0.01018334310462056</v>
+        <v>0.0160271025842843</v>
       </c>
       <c r="T10">
-        <v>0.01018334310462057</v>
+        <v>0.0160271025842843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1095,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2258063333333333</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H11">
-        <v>0.677419</v>
+        <v>0.265777</v>
       </c>
       <c r="I11">
-        <v>0.2435658565770285</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J11">
-        <v>0.2435658565770285</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.573052</v>
+        <v>5.787580333333334</v>
       </c>
       <c r="N11">
-        <v>19.719156</v>
+        <v>17.362741</v>
       </c>
       <c r="O11">
-        <v>0.9563653689351861</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="P11">
-        <v>0.956365368935186</v>
+        <v>0.9233893441524432</v>
       </c>
       <c r="Q11">
-        <v>1.484236770929333</v>
+        <v>0.5127352460841111</v>
       </c>
       <c r="R11">
-        <v>13.358130938364</v>
+        <v>4.614617214757</v>
       </c>
       <c r="S11">
-        <v>0.2329379502853045</v>
+        <v>0.2364961956999792</v>
       </c>
       <c r="T11">
-        <v>0.2329379502853045</v>
+        <v>0.2364961956999792</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2258063333333333</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H12">
-        <v>0.677419</v>
+        <v>0.265777</v>
       </c>
       <c r="I12">
-        <v>0.2435658565770285</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J12">
-        <v>0.2435658565770285</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,27 +1187,27 @@
         <v>0.103857</v>
       </c>
       <c r="O12">
-        <v>0.005036992360195417</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="P12">
-        <v>0.005036992360195417</v>
+        <v>0.005523347213187152</v>
       </c>
       <c r="Q12">
-        <v>0.007817189453666665</v>
+        <v>0.003066977987666667</v>
       </c>
       <c r="R12">
-        <v>0.070354705083</v>
+        <v>0.027602801889</v>
       </c>
       <c r="S12">
-        <v>0.001226839358782945</v>
+        <v>0.001414626031501175</v>
       </c>
       <c r="T12">
-        <v>0.001226839358782945</v>
+        <v>0.001414626031501175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,46 +1225,294 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2258063333333333</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H13">
-        <v>0.677419</v>
+        <v>0.265777</v>
       </c>
       <c r="I13">
-        <v>0.2435658565770285</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J13">
-        <v>0.2435658565770285</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05333966666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.160019</v>
+      </c>
+      <c r="O13">
+        <v>0.008510167804837369</v>
+      </c>
+      <c r="P13">
+        <v>0.008510167804837371</v>
+      </c>
+      <c r="Q13">
+        <v>0.004725485529222222</v>
+      </c>
+      <c r="R13">
+        <v>0.04252936976299999</v>
+      </c>
+      <c r="S13">
+        <v>0.002179603136377774</v>
+      </c>
+      <c r="T13">
+        <v>0.002179603136377774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06001866666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.180056</v>
+      </c>
+      <c r="I14">
+        <v>0.1735119951046289</v>
+      </c>
+      <c r="J14">
+        <v>0.1735119951046289</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M13">
-        <v>0.2652796666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.795839</v>
-      </c>
-      <c r="O13">
-        <v>0.03859763870461847</v>
-      </c>
-      <c r="P13">
-        <v>0.03859763870461847</v>
-      </c>
-      <c r="Q13">
-        <v>0.05990182883788888</v>
-      </c>
-      <c r="R13">
-        <v>0.539116459541</v>
-      </c>
-      <c r="S13">
-        <v>0.009401066932941066</v>
-      </c>
-      <c r="T13">
-        <v>0.009401066932941068</v>
+      <c r="M14">
+        <v>0.3922183333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.176655</v>
+      </c>
+      <c r="O14">
+        <v>0.06257714082953221</v>
+      </c>
+      <c r="P14">
+        <v>0.06257714082953222</v>
+      </c>
+      <c r="Q14">
+        <v>0.02354042140888889</v>
+      </c>
+      <c r="R14">
+        <v>0.21186379268</v>
+      </c>
+      <c r="S14">
+        <v>0.01085788455327547</v>
+      </c>
+      <c r="T14">
+        <v>0.01085788455327547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06001866666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.180056</v>
+      </c>
+      <c r="I15">
+        <v>0.1735119951046289</v>
+      </c>
+      <c r="J15">
+        <v>0.1735119951046289</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.787580333333334</v>
+      </c>
+      <c r="N15">
+        <v>17.362741</v>
+      </c>
+      <c r="O15">
+        <v>0.9233893441524432</v>
+      </c>
+      <c r="P15">
+        <v>0.9233893441524432</v>
+      </c>
+      <c r="Q15">
+        <v>0.3473628548328889</v>
+      </c>
+      <c r="R15">
+        <v>3.126265693496</v>
+      </c>
+      <c r="S15">
+        <v>0.1602191273622453</v>
+      </c>
+      <c r="T15">
+        <v>0.1602191273622453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06001866666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.180056</v>
+      </c>
+      <c r="I16">
+        <v>0.1735119951046289</v>
+      </c>
+      <c r="J16">
+        <v>0.1735119951046289</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.034619</v>
+      </c>
+      <c r="N16">
+        <v>0.103857</v>
+      </c>
+      <c r="O16">
+        <v>0.005523347213187152</v>
+      </c>
+      <c r="P16">
+        <v>0.005523347213187152</v>
+      </c>
+      <c r="Q16">
+        <v>0.002077786221333333</v>
+      </c>
+      <c r="R16">
+        <v>0.018700075992</v>
+      </c>
+      <c r="S16">
+        <v>0.0009583669946156948</v>
+      </c>
+      <c r="T16">
+        <v>0.0009583669946156948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06001866666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.180056</v>
+      </c>
+      <c r="I17">
+        <v>0.1735119951046289</v>
+      </c>
+      <c r="J17">
+        <v>0.1735119951046289</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05333966666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.160019</v>
+      </c>
+      <c r="O17">
+        <v>0.008510167804837369</v>
+      </c>
+      <c r="P17">
+        <v>0.008510167804837371</v>
+      </c>
+      <c r="Q17">
+        <v>0.003201375673777778</v>
+      </c>
+      <c r="R17">
+        <v>0.028812381064</v>
+      </c>
+      <c r="S17">
+        <v>0.001476616194492512</v>
+      </c>
+      <c r="T17">
+        <v>0.001476616194492513</v>
       </c>
     </row>
   </sheetData>
